--- a/data/pca/factorExposure/factorExposure_2012-07-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-30.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +689,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002521327003302251</v>
+        <v>-0.001533088376557869</v>
       </c>
       <c r="C2">
-        <v>-0.02749364294376307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02801259883096911</v>
+      </c>
+      <c r="D2">
+        <v>-0.005394277740014683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +730,27 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002788024937133147</v>
+        <v>0.007141059246663735</v>
       </c>
       <c r="C4">
-        <v>-0.09018371177239864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08386654449456993</v>
+      </c>
+      <c r="D4">
+        <v>-0.06465519998007976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +758,167 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.008306070345643186</v>
+        <v>0.01564705923545293</v>
       </c>
       <c r="C6">
-        <v>-0.1160547993145601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.1199405263384333</v>
+      </c>
+      <c r="D6">
+        <v>-0.0202532402637623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001296400124524069</v>
+        <v>0.004439854953042473</v>
       </c>
       <c r="C7">
-        <v>-0.05551240160144027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.05910806594799959</v>
+      </c>
+      <c r="D7">
+        <v>-0.03336901377395789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.003842515521102055</v>
+        <v>0.005173603022222501</v>
       </c>
       <c r="C8">
-        <v>-0.04241850751712734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.03674566314329828</v>
+      </c>
+      <c r="D8">
+        <v>-0.03506790815888786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.001893060931853193</v>
+        <v>0.006496454847431959</v>
       </c>
       <c r="C9">
-        <v>-0.07519890188408344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.0741898171563412</v>
+      </c>
+      <c r="D9">
+        <v>-0.06962788220140746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.0002744395789154247</v>
+        <v>0.002008023681529182</v>
       </c>
       <c r="C10">
-        <v>-0.04502008933030178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04924098863991928</v>
+      </c>
+      <c r="D10">
+        <v>0.1848384075579853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002337135864919488</v>
+        <v>0.007022564835155404</v>
       </c>
       <c r="C11">
-        <v>-0.08858212304477589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.08223181089574406</v>
+      </c>
+      <c r="D11">
+        <v>-0.06661354938054692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.00140220952513456</v>
+        <v>0.005133875451460743</v>
       </c>
       <c r="C12">
-        <v>-0.07063265817726903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.06765433514762427</v>
+      </c>
+      <c r="D12">
+        <v>-0.04759170357743896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.004637878752347569</v>
+        <v>0.009842684602163551</v>
       </c>
       <c r="C13">
-        <v>-0.07441098152516505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07058518928474568</v>
+      </c>
+      <c r="D13">
+        <v>-0.05521901762567716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0006871528959407245</v>
+        <v>0.0006736896028510115</v>
       </c>
       <c r="C14">
-        <v>-0.0466334118901138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.04366482573439823</v>
+      </c>
+      <c r="D14">
+        <v>-0.0121184383353819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.004177997367220221</v>
+        <v>0.007018398365790149</v>
       </c>
       <c r="C15">
-        <v>-0.04160029510369315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.04079253149318207</v>
+      </c>
+      <c r="D15">
+        <v>-0.02430589812448603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.00239843264020561</v>
+        <v>0.005905360067475714</v>
       </c>
       <c r="C16">
-        <v>-0.07298401111143167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.06673434196489596</v>
+      </c>
+      <c r="D16">
+        <v>-0.0569061114863926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +926,13 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +940,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +954,111 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.005402435798660963</v>
+        <v>0.009603766113974533</v>
       </c>
       <c r="C20">
-        <v>-0.07214252468090451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.06461399454318903</v>
+      </c>
+      <c r="D20">
+        <v>-0.04955920546529532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006812589692635399</v>
+        <v>0.009279935056113086</v>
       </c>
       <c r="C21">
-        <v>-0.02154946536644139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01988060491057655</v>
+      </c>
+      <c r="D21">
+        <v>-0.04109839079247143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01575977110411384</v>
+        <v>-0.0077656409592162</v>
       </c>
       <c r="C22">
-        <v>-0.09142068410883095</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.08500063074643593</v>
+      </c>
+      <c r="D22">
+        <v>-0.1143151428372382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01551104252178036</v>
+        <v>-0.007490647047233703</v>
       </c>
       <c r="C23">
-        <v>-0.09177974903077614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.08542146017399373</v>
+      </c>
+      <c r="D23">
+        <v>-0.1154531299428496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001925563108021981</v>
+        <v>0.006779446096849132</v>
       </c>
       <c r="C24">
-        <v>-0.08102079137786837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.07857452827345728</v>
+      </c>
+      <c r="D24">
+        <v>-0.06566015643539445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>9.750433563984225e-05</v>
+        <v>0.004494936527844718</v>
       </c>
       <c r="C25">
-        <v>-0.08490267159584565</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.07997313470187246</v>
+      </c>
+      <c r="D25">
+        <v>-0.06279748879289974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.0004417006281680285</v>
+        <v>0.003998105113604004</v>
       </c>
       <c r="C26">
-        <v>-0.03724218804602351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.03994331304890077</v>
+      </c>
+      <c r="D26">
+        <v>-0.02074704082727297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1066,139 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007004048878048824</v>
+        <v>-0.002173143799133803</v>
       </c>
       <c r="C28">
-        <v>-0.09125393335112306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.09824892594611349</v>
+      </c>
+      <c r="D28">
+        <v>0.3276091440293797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001197174220944866</v>
+        <v>0.003642909982441469</v>
       </c>
       <c r="C29">
-        <v>-0.04703490007069805</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.04747120368241312</v>
+      </c>
+      <c r="D29">
+        <v>-0.009072322586591117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003630687848309952</v>
+        <v>0.01108022387388097</v>
       </c>
       <c r="C30">
-        <v>-0.147013441517273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.1423500920704311</v>
+      </c>
+      <c r="D30">
+        <v>-0.1076220629921665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.004019660001705514</v>
+        <v>0.006736435468166056</v>
       </c>
       <c r="C31">
-        <v>-0.04475346924766101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.04474072482028555</v>
+      </c>
+      <c r="D31">
+        <v>-0.02890372852575202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0008558386910991698</v>
+        <v>0.004067810362203612</v>
       </c>
       <c r="C32">
-        <v>-0.03932170717293362</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.03770771840232263</v>
+      </c>
+      <c r="D32">
+        <v>-0.01526823937917626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003541497273068468</v>
+        <v>0.009860852236743952</v>
       </c>
       <c r="C33">
-        <v>-0.09072795596283881</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.09251835455202184</v>
+      </c>
+      <c r="D33">
+        <v>-0.06056201519525299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.00133249134702671</v>
+        <v>0.005514252089754204</v>
       </c>
       <c r="C34">
-        <v>-0.05991814179289486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.05982821362541557</v>
+      </c>
+      <c r="D34">
+        <v>-0.0566230512622863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.003239135467207332</v>
+        <v>0.005360994540055129</v>
       </c>
       <c r="C35">
-        <v>-0.04091701020875527</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.03989643273861504</v>
+      </c>
+      <c r="D35">
+        <v>-0.0135255003569198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003870688425823346</v>
+        <v>-0.00133386202137567</v>
       </c>
       <c r="C36">
-        <v>-0.02260760053150405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.02540861975244993</v>
+      </c>
+      <c r="D36">
+        <v>-0.01957023979684283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1206,69 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.005815742889856892</v>
+        <v>0.008910078715502459</v>
       </c>
       <c r="C38">
-        <v>-0.03730480067244192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.03865133090813219</v>
+      </c>
+      <c r="D38">
+        <v>-0.01154365530166139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.006238559884033231</v>
+        <v>0.0001699295281470976</v>
       </c>
       <c r="C39">
-        <v>-0.1219164078232552</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1146762190475505</v>
+      </c>
+      <c r="D39">
+        <v>-0.08250497744504014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.002040775671318935</v>
+        <v>0.002894399694509974</v>
       </c>
       <c r="C40">
-        <v>-0.08536537431866432</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08524409936269604</v>
+      </c>
+      <c r="D40">
+        <v>-0.007990387794952558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.005418540823917102</v>
+        <v>0.008033047624160024</v>
       </c>
       <c r="C41">
-        <v>-0.04086973303430149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.04192064491790715</v>
+      </c>
+      <c r="D41">
+        <v>-0.04321572697291372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1276,41 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.0006535332414207811</v>
+        <v>0.004564932472174591</v>
       </c>
       <c r="C43">
-        <v>-0.05400110129008024</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.05389955595390496</v>
+      </c>
+      <c r="D43">
+        <v>-0.02697282172990066</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.003533303943692771</v>
+        <v>0.002916580981651663</v>
       </c>
       <c r="C44">
-        <v>-0.1184245074147801</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.1037036467843744</v>
+      </c>
+      <c r="D44">
+        <v>-0.06233219059940418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1318,97 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0006637241399301743</v>
+        <v>0.0009753912013026705</v>
       </c>
       <c r="C46">
-        <v>-0.0350208205305071</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.03161417206371237</v>
+      </c>
+      <c r="D46">
+        <v>-0.0341281473984603</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.001520205236157007</v>
+        <v>0.003367907759046252</v>
       </c>
       <c r="C47">
-        <v>-0.03779086468006864</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.03558060586595477</v>
+      </c>
+      <c r="D47">
+        <v>-0.01983819466244431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.005578638957276729</v>
+        <v>0.007902894003878377</v>
       </c>
       <c r="C48">
-        <v>-0.02939932993413814</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.03207887245326564</v>
+      </c>
+      <c r="D48">
+        <v>-0.02750171232839741</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01070438302202405</v>
+        <v>0.02052346484335541</v>
       </c>
       <c r="C49">
-        <v>-0.1906881675238675</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.1889897429212366</v>
+      </c>
+      <c r="D49">
+        <v>-0.01017554472017797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001542176622820115</v>
+        <v>0.004398207791538327</v>
       </c>
       <c r="C50">
-        <v>-0.03900869756751885</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.04286849324638425</v>
+      </c>
+      <c r="D50">
+        <v>-0.03883103802548506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001622550083298226</v>
+        <v>0.004073970626374043</v>
       </c>
       <c r="C51">
-        <v>-0.02939930431668904</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.02738297048055666</v>
+      </c>
+      <c r="D51">
+        <v>-0.02417988453803398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1416,69 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.01307265900312504</v>
+        <v>0.02288700111913151</v>
       </c>
       <c r="C53">
-        <v>-0.1753620981359361</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.1714653095950787</v>
+      </c>
+      <c r="D53">
+        <v>-0.01894129440875786</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004396259267823456</v>
+        <v>0.009491310138539032</v>
       </c>
       <c r="C54">
-        <v>-0.05301554737032081</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.05759659598680371</v>
+      </c>
+      <c r="D54">
+        <v>-0.03940399815569538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004926845286014544</v>
+        <v>0.01072035029340867</v>
       </c>
       <c r="C55">
-        <v>-0.1134423754637711</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.1087724450744963</v>
+      </c>
+      <c r="D55">
+        <v>-0.03221301954115272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.01315525297839945</v>
+        <v>0.02219945811012604</v>
       </c>
       <c r="C56">
-        <v>-0.1766809077932338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.1718600266981066</v>
+      </c>
+      <c r="D56">
+        <v>-0.01479757258248071</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1486,545 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.004710390654700353</v>
+        <v>0.01798073337675491</v>
       </c>
       <c r="C58">
-        <v>-0.1050501306522113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1052935168040844</v>
+      </c>
+      <c r="D58">
+        <v>-0.05635917998490474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.0006089897105387535</v>
+        <v>0.01018152154879</v>
       </c>
       <c r="C59">
-        <v>-0.1388826561106057</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1657983198202155</v>
+      </c>
+      <c r="D59">
+        <v>0.3513663958948687</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.01399709609414894</v>
+        <v>0.0276397231625805</v>
       </c>
       <c r="C60">
-        <v>-0.2174255544512525</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.2255120163152891</v>
+      </c>
+      <c r="D60">
+        <v>-0.01939824056533983</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.006338147496460477</v>
+        <v>-0.001004519540282184</v>
       </c>
       <c r="C61">
-        <v>-0.1000456967111217</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.09538490899120058</v>
+      </c>
+      <c r="D61">
+        <v>-0.06046131718060552</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1518698471138445</v>
+        <v>0.1555058253492814</v>
       </c>
       <c r="C62">
-        <v>-0.1047480413764111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.1031177682386011</v>
+      </c>
+      <c r="D62">
+        <v>-0.01711001255657589</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003514172268731132</v>
+        <v>0.006847153173033845</v>
       </c>
       <c r="C63">
-        <v>-0.0550454931704931</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.05338558001687711</v>
+      </c>
+      <c r="D63">
+        <v>-0.03259880571620942</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01171819382726352</v>
+        <v>0.01729776312192213</v>
       </c>
       <c r="C64">
-        <v>-0.1146913478278206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.111573256956875</v>
+      </c>
+      <c r="D64">
+        <v>-0.0499553022419833</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.01116487664791059</v>
+        <v>0.01830909755814638</v>
       </c>
       <c r="C65">
-        <v>-0.1240872015640154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.1270748172993451</v>
+      </c>
+      <c r="D65">
+        <v>-0.02357169012121452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.005511748687705832</v>
+        <v>0.0145845847278499</v>
       </c>
       <c r="C66">
-        <v>-0.1665890319910997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1625131569583424</v>
+      </c>
+      <c r="D66">
+        <v>-0.1148733844483725</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.01019426875166403</v>
+        <v>0.01559255301760958</v>
       </c>
       <c r="C67">
-        <v>-0.07082995062518613</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07219081436160905</v>
+      </c>
+      <c r="D67">
+        <v>-0.02444614105602615</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004576581153924323</v>
+        <v>0.0002631941107902716</v>
       </c>
       <c r="C68">
-        <v>-0.07077526499552454</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.08001540229610289</v>
+      </c>
+      <c r="D68">
+        <v>0.2623954168919868</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002051420048987166</v>
+        <v>0.006269539079964415</v>
       </c>
       <c r="C69">
-        <v>-0.05585188070367567</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.05340973533924313</v>
+      </c>
+      <c r="D69">
+        <v>-0.03531020903569086</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001792661818025528</v>
+        <v>0.002720573284690166</v>
       </c>
       <c r="C70">
-        <v>-0.002899302141799938</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.009113946892182354</v>
+      </c>
+      <c r="D70">
+        <v>0.001246330498488932</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0003544196776309585</v>
+        <v>0.004949264722065334</v>
       </c>
       <c r="C71">
-        <v>-0.07571855825148015</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.08545870324170675</v>
+      </c>
+      <c r="D71">
+        <v>0.3048228527522476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.009874354444880357</v>
+        <v>0.019147057461968</v>
       </c>
       <c r="C72">
-        <v>-0.151417135032976</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.1577749286055634</v>
+      </c>
+      <c r="D72">
+        <v>-0.009285015026174766</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01865040572532564</v>
+        <v>0.03331314080652594</v>
       </c>
       <c r="C73">
-        <v>-0.2884294392797763</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.2855399150611008</v>
+      </c>
+      <c r="D73">
+        <v>-0.0546194807364509</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.002455963999395289</v>
+        <v>0.002629089071392564</v>
       </c>
       <c r="C74">
-        <v>-0.1080001732364189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.1033886562802861</v>
+      </c>
+      <c r="D74">
+        <v>-0.03191029413076142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004104117096203732</v>
+        <v>0.01296821571542469</v>
       </c>
       <c r="C75">
-        <v>-0.1214492051420353</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.1177434226160025</v>
+      </c>
+      <c r="D75">
+        <v>-0.02503227304543647</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.0153764665791291</v>
+        <v>0.02323796305201507</v>
       </c>
       <c r="C76">
-        <v>-0.1509275096961894</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.1446776577363025</v>
+      </c>
+      <c r="D76">
+        <v>-0.05442552407421509</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.01269059382664542</v>
+        <v>0.02163557577912438</v>
       </c>
       <c r="C77">
-        <v>-0.1093723428572364</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1064467792763685</v>
+      </c>
+      <c r="D77">
+        <v>-0.04711095997474209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.007886966416697139</v>
+        <v>0.01518548911717452</v>
       </c>
       <c r="C78">
-        <v>-0.09036974533019576</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1016325648353875</v>
+      </c>
+      <c r="D78">
+        <v>-0.0775520967736537</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.03174077799809305</v>
+        <v>0.03958402536473425</v>
       </c>
       <c r="C79">
-        <v>-0.1671745572293624</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.1563169150838004</v>
+      </c>
+      <c r="D79">
+        <v>-0.02652310692824127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.008150827548620496</v>
+        <v>0.01000995120057965</v>
       </c>
       <c r="C80">
-        <v>-0.0453693534291648</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.03959274070554961</v>
+      </c>
+      <c r="D80">
+        <v>-0.03028611327913356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.01010318274034296</v>
+        <v>0.01728445805943344</v>
       </c>
       <c r="C81">
-        <v>-0.1371875760494337</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.1308183908874521</v>
+      </c>
+      <c r="D81">
+        <v>-0.03560545259726956</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.01227603553021248</v>
+        <v>0.02088536014343371</v>
       </c>
       <c r="C82">
-        <v>-0.1452373002377301</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.1365536672839107</v>
+      </c>
+      <c r="D82">
+        <v>-0.03741209838022198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004821476996992495</v>
+        <v>0.01220570293267857</v>
       </c>
       <c r="C83">
-        <v>-0.06921230385840238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.06567944401472911</v>
+      </c>
+      <c r="D83">
+        <v>-0.04487286378026133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004632641823172509</v>
+        <v>0.007223778068686005</v>
       </c>
       <c r="C84">
-        <v>-0.02555260208544202</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.0348937609869413</v>
+      </c>
+      <c r="D84">
+        <v>-0.01247292046616376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.02354311895365329</v>
+        <v>0.03036756174117165</v>
       </c>
       <c r="C85">
-        <v>-0.1398830634299106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.1224171112911119</v>
+      </c>
+      <c r="D85">
+        <v>-0.03858172795416912</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0008894303746713064</v>
+        <v>0.004101845475875801</v>
       </c>
       <c r="C86">
-        <v>-0.0486218554487142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.05119514527557817</v>
+      </c>
+      <c r="D86">
+        <v>-0.0219388556384539</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.007048392463601475</v>
+        <v>0.01316587666812731</v>
       </c>
       <c r="C87">
-        <v>-0.1412220738275152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1290720029177255</v>
+      </c>
+      <c r="D87">
+        <v>-0.07267425441075634</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.006053343813960245</v>
+        <v>-0.002514809837012935</v>
       </c>
       <c r="C88">
-        <v>-0.06974119614383231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06360913256511221</v>
+      </c>
+      <c r="D88">
+        <v>-0.0274540551412889</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.009946371728968209</v>
+        <v>-0.001752380741585543</v>
       </c>
       <c r="C89">
-        <v>-0.1127423636412629</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.1278733144991722</v>
+      </c>
+      <c r="D89">
+        <v>0.3217820371646591</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0009225032459922004</v>
+        <v>0.005518062742759113</v>
       </c>
       <c r="C90">
-        <v>-0.1014222785257195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.1102501128835342</v>
+      </c>
+      <c r="D90">
+        <v>0.315708799499076</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.005147673666369105</v>
+        <v>0.0114475133625912</v>
       </c>
       <c r="C91">
-        <v>-0.1036580595129157</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.09874711555989968</v>
+      </c>
+      <c r="D91">
+        <v>-0.02680469359661993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.006023626861917671</v>
+        <v>-4.975336501879599e-05</v>
       </c>
       <c r="C92">
-        <v>-0.1141521506423199</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.1221708226570617</v>
+      </c>
+      <c r="D92">
+        <v>0.3267700449277399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002307025105280374</v>
+        <v>0.003342266300640013</v>
       </c>
       <c r="C93">
-        <v>-0.09111755169814079</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.1018489055890994</v>
+      </c>
+      <c r="D93">
+        <v>0.3009672145870387</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01503374587104008</v>
+        <v>0.02284316272222538</v>
       </c>
       <c r="C94">
-        <v>-0.1528739671238825</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.1349057830396667</v>
+      </c>
+      <c r="D94">
+        <v>-0.05206054901982513</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.0123099653590494</v>
+        <v>0.01830213009113601</v>
       </c>
       <c r="C95">
-        <v>-0.1266490722446637</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1218145239852427</v>
+      </c>
+      <c r="D95">
+        <v>-0.06596570848916151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2032,55 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.02192350239429857</v>
+        <v>0.03858022612363057</v>
       </c>
       <c r="C97">
-        <v>-0.2004283197049158</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.2249358097020267</v>
+      </c>
+      <c r="D97">
+        <v>0.008921335226543493</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.02197980092210227</v>
+        <v>0.04128544132980338</v>
       </c>
       <c r="C98">
-        <v>-0.2684474257386844</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.2649451798903626</v>
+      </c>
+      <c r="D98">
+        <v>-0.03125874543098457</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9850297695837185</v>
+        <v>0.9794109843194263</v>
       </c>
       <c r="C99">
-        <v>0.06919229855140652</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.1293436292891334</v>
+      </c>
+      <c r="D99">
+        <v>0.02531664115592583</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2088,27 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001175460757013053</v>
+        <v>0.003633256438038773</v>
       </c>
       <c r="C101">
-        <v>-0.04729146612931462</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.04765602680378439</v>
+      </c>
+      <c r="D101">
+        <v>-0.00973167947038832</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2116,13 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2130,21 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
